--- a/medicine/Pharmacie/Delamanid/Delamanid.xlsx
+++ b/medicine/Pharmacie/Delamanid/Delamanid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le delamanid est un médicament anti-tuberculeux indiqué dans les formes résistantes aux antibiotiques traditionnels.
-Delamanid est le principe actif d'une spécialité pharmaceutique dénommée DELTYBA comprimé dosé à 50 mg. Il est exploité en France par OTSUKA PHARMACEUTICAL FRANCE SAS et est disponible depuis juin 2016. Il est disponible, au public, en France uniquement dans les pharmacies hospitalières. Il s'agit d'un produit coûteux 30 € le comprimé. Il est remboursé par l'assurance-maladie à 65 %[1].
+Delamanid est le principe actif d'une spécialité pharmaceutique dénommée DELTYBA comprimé dosé à 50 mg. Il est exploité en France par OTSUKA PHARMACEUTICAL FRANCE SAS et est disponible depuis juin 2016. Il est disponible, au public, en France uniquement dans les pharmacies hospitalières. Il s'agit d'un produit coûteux 30 € le comprimé. Il est remboursé par l'assurance-maladie à 65 %.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un dérivé nitro-dihydro-imidazooxazole inhibant la synthèse de l'acide mycolique, un constituant de la paroi du mycobacterium[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un dérivé nitro-dihydro-imidazooxazole inhibant la synthèse de l'acide mycolique, un constituant de la paroi du mycobacterium.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Associé à un traitement anti-tuberculeux traditionnel dans les formes résistantes de la tuberculose, il augmente, à deux mois, le taux de disparition du germe dans les crachats[3] et diminue la mortalité de la maladie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Associé à un traitement anti-tuberculeux traditionnel dans les formes résistantes de la tuberculose, il augmente, à deux mois, le taux de disparition du germe dans les crachats et diminue la mortalité de la maladie.
 </t>
         </is>
       </c>
